--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.5164176997431587</v>
+        <v>3.5164176763810868</v>
       </c>
       <c r="C2">
-        <v>7.8398482098958793</v>
+        <v>7.8398482104212643</v>
       </c>
       <c r="D2">
-        <v>-1.1930133181866314</v>
+        <v>-1.1930133415059534</v>
       </c>
       <c r="E2">
-        <v>7.2869525836268556</v>
+        <v>7.2869525721721544</v>
       </c>
       <c r="F2">
-        <v>-15.458822070696332</v>
+        <v>-15.458822070947011</v>
       </c>
       <c r="G2">
-        <v>11.886500079883904</v>
+        <v>11.886500075642102</v>
       </c>
       <c r="H2">
-        <v>8.0007432236214981</v>
+        <v>8.000743204501223</v>
       </c>
       <c r="I2">
-        <v>8.7658347656784912</v>
+        <v>8.7658347594595778</v>
       </c>
       <c r="J2">
-        <v>12.79753719761662</v>
+        <v>12.79753717943724</v>
       </c>
       <c r="K2">
-        <v>9.204982550751474</v>
+        <v>9.2049825338627738</v>
       </c>
       <c r="L2">
-        <v>15.466339039273358</v>
+        <v>15.46633901760211</v>
       </c>
       <c r="N2">
-        <v>11.626603124064864</v>
+        <v>11.626603096540714</v>
       </c>
       <c r="O2">
-        <v>9.4188840343783422</v>
+        <v>9.4188840197899335</v>
       </c>
       <c r="P2">
-        <v>5.7946129713212775</v>
+        <v>5.7946129705384344</v>
       </c>
       <c r="Q2">
-        <v>9.7866776274841989</v>
+        <v>9.7866776228049606</v>
       </c>
       <c r="S2">
-        <v>8.6549028988026411</v>
+        <v>8.6549028929256622</v>
       </c>
       <c r="V2">
-        <v>7.0253831130198829</v>
+        <v>7.025383108770165</v>
       </c>
       <c r="W2">
-        <v>7.1418291821005102</v>
+        <v>7.1418291801092524</v>
       </c>
       <c r="X2">
-        <v>11.928354539680942</v>
+        <v>11.928354529725409</v>
       </c>
       <c r="AA2">
-        <v>13.667015612356909</v>
+        <v>13.667015591945585</v>
       </c>
       <c r="AB2">
-        <v>9.3019999229547281</v>
+        <v>9.3019999128665916</v>
       </c>
       <c r="AC2">
-        <v>11.590899334709642</v>
+        <v>11.590899332538976</v>
       </c>
       <c r="AD2">
-        <v>6.3458574489685615</v>
+        <v>6.3458574366503724</v>
       </c>
       <c r="AE2">
-        <v>-0.83340195994242638</v>
+        <v>-0.8334019620007127</v>
       </c>
       <c r="AF2">
-        <v>9.3673112449318481</v>
+        <v>9.3673112441575519</v>
       </c>
       <c r="AG2">
-        <v>10.879815932679248</v>
+        <v>10.879815908695349</v>
       </c>
       <c r="AH2">
-        <v>7.2249284050680274</v>
+        <v>7.2249284022930311</v>
       </c>
       <c r="AI2">
-        <v>18.899241382577863</v>
+        <v>18.899241368018917</v>
       </c>
       <c r="AJ2">
-        <v>6.9375700694007421</v>
+        <v>6.9375700639571241</v>
       </c>
       <c r="AK2">
-        <v>12.210091293762019</v>
+        <v>12.210091279754147</v>
       </c>
       <c r="AL2">
-        <v>10.799190190731981</v>
+        <v>10.799190179515211</v>
       </c>
       <c r="AM2">
-        <v>9.1294965569941056</v>
+        <v>9.129496530890183</v>
       </c>
       <c r="AN2">
-        <v>10.054371791919934</v>
+        <v>10.054371771964066</v>
       </c>
       <c r="AO2">
-        <v>9.4558722777093482</v>
+        <v>9.4558722677065994</v>
       </c>
       <c r="AQ2">
-        <v>8.2091767128385307</v>
+        <v>8.2091767016977002</v>
       </c>
       <c r="AR2">
-        <v>10.192087591048523</v>
+        <v>10.192087590181988</v>
       </c>
       <c r="AS2">
-        <v>11.173410797951981</v>
+        <v>11.173410795645633</v>
       </c>
       <c r="AU2">
-        <v>9.0239322288670909</v>
+        <v>9.02393222805207</v>
       </c>
       <c r="AV2">
-        <v>4.4757181257842529</v>
+        <v>4.4757181119329212</v>
       </c>
       <c r="AW2">
-        <v>10.077707583554432</v>
+        <v>10.077707575469489</v>
       </c>
       <c r="AX2">
-        <v>10.429811856714643</v>
+        <v>10.429811838387918</v>
       </c>
       <c r="AY2">
-        <v>13.827614268166903</v>
+        <v>13.827614259873769</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.4811491588502692</v>
+        <v>6.4811491430437282</v>
       </c>
       <c r="C3">
-        <v>9.2540783985398427</v>
+        <v>9.2540783877208277</v>
       </c>
       <c r="E3">
-        <v>7.3997149423050139</v>
+        <v>7.3997149344402349</v>
       </c>
       <c r="F3">
-        <v>4.5114200924150127</v>
+        <v>4.5114200817564827</v>
       </c>
       <c r="G3">
-        <v>10.217480244878141</v>
+        <v>10.217480235804123</v>
       </c>
       <c r="H3">
-        <v>12.699249422578983</v>
+        <v>12.699249403947849</v>
       </c>
       <c r="J3">
-        <v>12.53154216113902</v>
+        <v>12.531542142714811</v>
       </c>
       <c r="K3">
-        <v>12.963344223141885</v>
+        <v>12.963344208573272</v>
       </c>
       <c r="L3">
-        <v>26.243393930842235</v>
+        <v>26.243393908599888</v>
       </c>
       <c r="M3">
-        <v>6.6357438039337771</v>
+        <v>6.6357012248225882</v>
       </c>
       <c r="N3">
-        <v>9.6110300260233235</v>
+        <v>9.6110300052831334</v>
       </c>
       <c r="P3">
-        <v>10.463378221471956</v>
+        <v>10.463378208563883</v>
       </c>
       <c r="Q3">
-        <v>5.7376121796402124</v>
+        <v>5.737612168844147</v>
       </c>
       <c r="R3">
-        <v>7.5300165225048801</v>
+        <v>7.530016513677336</v>
       </c>
       <c r="W3">
-        <v>9.2727746711666263</v>
+        <v>9.2727746730447702</v>
       </c>
       <c r="AA3">
-        <v>11.202617521501701</v>
+        <v>11.202617506022923</v>
       </c>
       <c r="AB3">
-        <v>8.8169620443948276</v>
+        <v>8.8169620407054499</v>
       </c>
       <c r="AC3">
-        <v>15.865746457324059</v>
+        <v>15.865746439952963</v>
       </c>
       <c r="AD3">
-        <v>8.6760408821091914</v>
+        <v>8.6760408601717902</v>
       </c>
       <c r="AE3">
-        <v>10.076685322552686</v>
+        <v>10.076685315333002</v>
       </c>
       <c r="AF3">
-        <v>11.898213731009443</v>
+        <v>11.898213723888029</v>
       </c>
       <c r="AG3">
-        <v>15.537506546670496</v>
+        <v>15.537506529989702</v>
       </c>
       <c r="AH3">
-        <v>12.354064358363196</v>
+        <v>12.354064356604432</v>
       </c>
       <c r="AI3">
-        <v>12.417862102031032</v>
+        <v>12.417862079744978</v>
       </c>
       <c r="AJ3">
-        <v>15.07040664416682</v>
+        <v>15.070406623415789</v>
       </c>
       <c r="AK3">
-        <v>24.744950036969453</v>
+        <v>24.744950011139814</v>
       </c>
       <c r="AL3">
-        <v>11.65020474320597</v>
+        <v>11.650204734572455</v>
       </c>
       <c r="AM3">
-        <v>7.4977301219865833</v>
+        <v>7.4977301080259222</v>
       </c>
       <c r="AN3">
-        <v>6.0396883733706748</v>
+        <v>6.0396883604225415</v>
       </c>
       <c r="AO3">
-        <v>11.869072662689375</v>
+        <v>11.869072651872848</v>
       </c>
       <c r="AP3">
-        <v>7.9901954153608541</v>
+        <v>7.9901954053243545</v>
       </c>
       <c r="AQ3">
-        <v>8.55278524801912</v>
+        <v>8.5527852424325665</v>
       </c>
       <c r="AS3">
-        <v>9.1264343268465762</v>
+        <v>9.1264343207489578</v>
       </c>
       <c r="AT3">
-        <v>8.948923132923186</v>
+        <v>8.9489231144241863</v>
       </c>
       <c r="AU3">
-        <v>10.757166994825827</v>
+        <v>10.757166983377584</v>
       </c>
       <c r="AV3">
-        <v>10.383449716021573</v>
+        <v>10.383449692401488</v>
       </c>
       <c r="AW3">
-        <v>9.3021829350236747</v>
+        <v>9.3021829251665444</v>
       </c>
       <c r="AX3">
-        <v>9.7725181477567489</v>
+        <v>9.7725181304474944</v>
       </c>
       <c r="AY3">
-        <v>9.6182387994280596</v>
+        <v>9.6182387830733482</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,256 +401,268 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>3.5164176763810868</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.8398482104212643</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1.1930133415059534</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.2869525721721544</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.458822070947011</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.886500075642102</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.000743204501223</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.7658347594595778</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.79753717943724</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.2049825338627738</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.46633901760211</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.626603096540714</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.4188840197899335</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.7946129705384344</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.7866776228049606</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>8.6549028929256622</v>
+        <v>8.654916274516955</v>
       </c>
       <c r="V2">
         <v>7.025383108770165</v>
       </c>
       <c r="W2">
-        <v>7.1418291801092524</v>
+        <v>7.1418417779726369</v>
       </c>
       <c r="X2">
-        <v>11.928354529725409</v>
+        <v>11.928338846468591</v>
       </c>
       <c r="AA2">
-        <v>13.667015591945585</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>9.3019999128665916</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11.590899332538976</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.3458574366503724</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-0.8334019620007127</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.3673112441575519</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.879815908695349</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.2249284022930311</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>18.899241368018917</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.9375700639571241</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.210091279754147</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>10.799190179515211</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>9.129496530890183</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10.054371771964066</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>9.4558722677065994</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>8.2091767016977002</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.192087590181988</v>
+        <v>10.19207387548245</v>
       </c>
       <c r="AS2">
         <v>11.173410795645633</v>
       </c>
       <c r="AU2">
-        <v>9.02393222805207</v>
+        <v>9.0239188938006887</v>
       </c>
       <c r="AV2">
-        <v>4.4757181119329212</v>
+        <v>4.4757305441136079</v>
       </c>
       <c r="AW2">
-        <v>10.077707575469489</v>
+        <v>10.077692251241064</v>
       </c>
       <c r="AX2">
-        <v>10.429811838387918</v>
+        <v>10.429795885720523</v>
       </c>
       <c r="AY2">
-        <v>13.827614259873769</v>
+        <v>13.827596723756807</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.4811491430437282</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.2540783877208277</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>7.3997149344402349</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.5114200817564827</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.217480235804123</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>12.699249403947849</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.531542142714811</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.963344208573272</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>26.243393908599888</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.6357012248225882</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.6110300052831334</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10.463378208563883</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.737612168844147</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.530016513677336</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>9.2727746730447702</v>
+        <v>9.2727596195580375</v>
       </c>
       <c r="AA3">
-        <v>11.202617506022923</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.8169620407054499</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.865746439952963</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.6760408601717902</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>10.076685315333002</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.898213723888029</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15.537506529989702</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>12.354064356604432</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>12.417862079744978</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>15.070406623415789</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>24.744950011139814</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>11.650204734572455</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.4977301080259222</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.0396883604225415</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>11.869072651872848</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.9901954053243545</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.5527852424325665</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>9.1264343207489578</v>
+        <v>9.1264199579612733</v>
       </c>
       <c r="AT3">
         <v>8.9489231144241863</v>
       </c>
       <c r="AU3">
-        <v>10.757166983377584</v>
+        <v>10.757153375162543</v>
       </c>
       <c r="AV3">
-        <v>10.383449692401488</v>
+        <v>10.383434268008338</v>
       </c>
       <c r="AW3">
         <v>9.3021829251665444</v>
       </c>
       <c r="AX3">
-        <v>9.7725181304474944</v>
+        <v>11.813549902780823</v>
       </c>
       <c r="AY3">
-        <v>9.6182387830733482</v>
+        <v>33.030299592370504</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.5164309984746831</v>
-      </c>
-      <c r="C2">
-        <v>10.680082360483169</v>
+        <v>9.4188686742162915</v>
       </c>
       <c r="D2">
-        <v>-1.1930300572235493</v>
+        <v>10.054387545355425</v>
       </c>
       <c r="E2">
-        <v>7.2869670161590916</v>
+        <v>8.2091894300565773</v>
       </c>
       <c r="F2">
         <v>-15.458822070696332</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>6.4811491588502692</v>
-      </c>
       <c r="C3">
-        <v>13.016050164940248</v>
+        <v>7.5300292502696546</v>
+      </c>
+      <c r="D3">
+        <v>6.039703408895261</v>
       </c>
       <c r="E3">
-        <v>7.3997001269020455</v>
+        <v>8.5190974215319812</v>
       </c>
       <c r="F3">
         <v>4.5114200924150127</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.5164309984746831</v>
+        <v>3.7734659331347253</v>
       </c>
       <c r="C2">
-        <v>10.680082360483169</v>
+        <v>9.4188686742162915</v>
       </c>
       <c r="D2">
-        <v>-1.1930300572235493</v>
+        <v>10.911197095322951</v>
       </c>
       <c r="E2">
-        <v>7.2869670161590916</v>
+        <v>10.054387545355425</v>
       </c>
       <c r="F2">
         <v>-15.458822070696332</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.4811491588502692</v>
-      </c>
-      <c r="C3">
-        <v>13.016050164940248</v>
+        <v>3.5079686643944403</v>
+      </c>
+      <c r="D3">
+        <v>14.411027831216488</v>
       </c>
       <c r="E3">
-        <v>7.3997001269020455</v>
+        <v>6.039703408895261</v>
       </c>
       <c r="F3">
         <v>4.5114200924150127</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>3.5164309751126077</v>
+      </c>
+      <c r="C2">
+        <v>10.680082361022391</v>
+      </c>
+      <c r="D2">
+        <v>-1.1930300805428673</v>
+      </c>
+      <c r="E2">
+        <v>7.2869670047043895</v>
+      </c>
+      <c r="F2">
+        <v>-15.458822070947011</v>
+      </c>
+      <c r="G2">
+        <v>11.886515292052753</v>
+      </c>
+      <c r="H2">
+        <v>8.000743204501223</v>
+      </c>
+      <c r="I2">
+        <v>8.7658216535435489</v>
+      </c>
+      <c r="J2">
+        <v>12.797554987454676</v>
+      </c>
+      <c r="K2">
+        <v>20.273084418327073</v>
+      </c>
+      <c r="L2">
+        <v>15.46635850603143</v>
+      </c>
+      <c r="N2">
         <v>3.7734659331347253</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>9.4188686742162915</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.7946129705384344</v>
+      </c>
+      <c r="Q2">
+        <v>19.961704986884747</v>
+      </c>
+      <c r="S2">
+        <v>8.654916274516955</v>
+      </c>
+      <c r="V2">
+        <v>7.025383108770165</v>
+      </c>
+      <c r="W2">
+        <v>7.1418417779726369</v>
+      </c>
+      <c r="X2">
+        <v>11.928338846468591</v>
+      </c>
+      <c r="AA2">
+        <v>13.66703053945505</v>
+      </c>
+      <c r="AB2">
+        <v>5.2455127136794983</v>
+      </c>
+      <c r="AC2">
+        <v>11.59088054142047</v>
+      </c>
+      <c r="AD2">
+        <v>6.3458432705006285</v>
+      </c>
+      <c r="AE2">
+        <v>-0.8334019620007127</v>
+      </c>
+      <c r="AF2">
+        <v>9.3672966238462738</v>
+      </c>
+      <c r="AG2">
+        <v>10.879833596688856</v>
+      </c>
+      <c r="AH2">
+        <v>7.2249154960218887</v>
+      </c>
+      <c r="AI2">
+        <v>18.899241368018917</v>
+      </c>
+      <c r="AJ2">
+        <v>7.7877091962157401</v>
+      </c>
+      <c r="AK2">
+        <v>12.210091279754147</v>
+      </c>
+      <c r="AL2">
+        <v>10.799176272235005</v>
+      </c>
+      <c r="AM2">
         <v>10.911197095322951</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>10.054387545355425</v>
       </c>
-      <c r="F2">
-        <v>-15.458822070696332</v>
-      </c>
-      <c r="G2">
-        <v>11.886515296294556</v>
-      </c>
-      <c r="H2">
-        <v>8.0007432236214981</v>
-      </c>
-      <c r="I2">
-        <v>8.7658216597624623</v>
-      </c>
-      <c r="J2">
-        <v>12.797555005634059</v>
-      </c>
-      <c r="K2">
-        <v>20.273084436927469</v>
-      </c>
-      <c r="L2">
-        <v>15.466358527702685</v>
-      </c>
-      <c r="N2">
-        <v>3.7734659587225008</v>
-      </c>
-      <c r="O2">
-        <v>9.4188686888046984</v>
-      </c>
-      <c r="P2">
-        <v>5.7946129713212775</v>
-      </c>
-      <c r="Q2">
-        <v>19.961704991997657</v>
-      </c>
-      <c r="S2">
-        <v>8.6549162803939339</v>
-      </c>
-      <c r="V2">
-        <v>7.0253831130198829</v>
-      </c>
-      <c r="W2">
-        <v>7.1418417799638947</v>
-      </c>
-      <c r="X2">
-        <v>11.928338856424125</v>
-      </c>
-      <c r="AA2">
-        <v>13.667030559866378</v>
-      </c>
-      <c r="AB2">
-        <v>5.2455127233932375</v>
-      </c>
-      <c r="AC2">
-        <v>11.590880543591133</v>
-      </c>
-      <c r="AD2">
-        <v>6.3458432828188167</v>
-      </c>
-      <c r="AE2">
-        <v>-0.83340195994242638</v>
-      </c>
-      <c r="AF2">
-        <v>9.3672966246205682</v>
-      </c>
-      <c r="AG2">
-        <v>10.879833620672761</v>
-      </c>
-      <c r="AH2">
-        <v>7.224915498796884</v>
-      </c>
-      <c r="AI2">
-        <v>18.899241382577863</v>
-      </c>
-      <c r="AJ2">
-        <v>7.7877092017026346</v>
-      </c>
-      <c r="AK2">
-        <v>12.210091293762019</v>
-      </c>
-      <c r="AL2">
-        <v>10.799176283451771</v>
-      </c>
-      <c r="AM2">
-        <v>10.911197121853061</v>
-      </c>
-      <c r="AN2">
-        <v>10.054387565311298</v>
-      </c>
       <c r="AO2">
-        <v>9.4558583628682769</v>
+        <v>9.4558583528655298</v>
       </c>
       <c r="AQ2">
-        <v>8.2091894411974096</v>
+        <v>8.2091894300565773</v>
       </c>
       <c r="AR2">
-        <v>10.192073876348985</v>
+        <v>10.19207387548245</v>
       </c>
       <c r="AS2">
-        <v>11.173410797951981</v>
+        <v>11.173410795645633</v>
       </c>
       <c r="AU2">
-        <v>9.0239188946157096</v>
+        <v>9.0239188938006887</v>
       </c>
       <c r="AV2">
-        <v>4.4757305579649413</v>
+        <v>4.4757305441136079</v>
       </c>
       <c r="AW2">
-        <v>10.077692259326007</v>
+        <v>10.077692251241064</v>
       </c>
       <c r="AX2">
-        <v>10.429795904047246</v>
+        <v>10.429795885720523</v>
       </c>
       <c r="AY2">
-        <v>13.827596732049937</v>
+        <v>13.827596723756807</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.4811491430437282</v>
+      </c>
+      <c r="C3">
+        <v>13.016050153748701</v>
+      </c>
+      <c r="E3">
+        <v>7.3997001190372682</v>
+      </c>
+      <c r="F3">
+        <v>4.5114200817564827</v>
+      </c>
+      <c r="G3">
+        <v>10.217465099268049</v>
+      </c>
+      <c r="H3">
+        <v>12.699230904330246</v>
+      </c>
+      <c r="J3">
+        <v>19.746511888090442</v>
+      </c>
+      <c r="K3">
+        <v>12.963344208573272</v>
+      </c>
+      <c r="L3">
+        <v>26.243393908599888</v>
+      </c>
+      <c r="M3">
+        <v>6.635713943650674</v>
+      </c>
+      <c r="N3">
         <v>3.5079686643944403</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>10.463378208563883</v>
+      </c>
+      <c r="Q3">
+        <v>5.7376006178570442</v>
+      </c>
+      <c r="R3">
+        <v>7.5300292502696546</v>
+      </c>
+      <c r="W3">
+        <v>9.2727596195580375</v>
+      </c>
+      <c r="AA3">
+        <v>11.202603594306524</v>
+      </c>
+      <c r="AB3">
+        <v>9.0378739453544359</v>
+      </c>
+      <c r="AC3">
+        <v>15.86576663644694</v>
+      </c>
+      <c r="AD3">
+        <v>8.6760253018682754</v>
+      </c>
+      <c r="AE3">
+        <v>10.076669565695157</v>
+      </c>
+      <c r="AF3">
+        <v>11.898213723888029</v>
+      </c>
+      <c r="AG3">
+        <v>15.537506529989702</v>
+      </c>
+      <c r="AH3">
+        <v>12.330216678759212</v>
+      </c>
+      <c r="AI3">
+        <v>13.992034291154395</v>
+      </c>
+      <c r="AJ3">
+        <v>15.070406623415789</v>
+      </c>
+      <c r="AK3">
+        <v>24.744971516862947</v>
+      </c>
+      <c r="AL3">
+        <v>11.650204734572455</v>
+      </c>
+      <c r="AM3">
         <v>14.411027831216488</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>6.039703408895261</v>
       </c>
-      <c r="F3">
-        <v>4.5114200924150127</v>
-      </c>
-      <c r="G3">
-        <v>10.217465108342065</v>
-      </c>
-      <c r="H3">
-        <v>12.699230922961377</v>
-      </c>
-      <c r="J3">
-        <v>19.746511907695925</v>
-      </c>
-      <c r="K3">
-        <v>12.963344223141885</v>
-      </c>
-      <c r="L3">
-        <v>26.243393930842235</v>
-      </c>
-      <c r="M3">
-        <v>6.6357565227669415</v>
-      </c>
-      <c r="N3">
-        <v>3.5079686839798319</v>
-      </c>
-      <c r="P3">
-        <v>10.463378221471956</v>
-      </c>
-      <c r="Q3">
-        <v>5.7376006286531078</v>
-      </c>
-      <c r="R3">
-        <v>7.5300292590971987</v>
-      </c>
-      <c r="W3">
-        <v>9.2727596176798937</v>
-      </c>
-      <c r="AA3">
-        <v>11.202603609785299</v>
-      </c>
-      <c r="AB3">
-        <v>9.0378739490513027</v>
-      </c>
-      <c r="AC3">
-        <v>15.865766653818039</v>
-      </c>
-      <c r="AD3">
-        <v>8.676025323805673</v>
-      </c>
-      <c r="AE3">
-        <v>10.076669572914842</v>
-      </c>
-      <c r="AF3">
-        <v>11.898213731009443</v>
-      </c>
-      <c r="AG3">
-        <v>15.537506546670496</v>
-      </c>
-      <c r="AH3">
-        <v>12.330216682856902</v>
-      </c>
-      <c r="AI3">
-        <v>13.992034313752519</v>
-      </c>
-      <c r="AJ3">
-        <v>15.07040664416682</v>
-      </c>
-      <c r="AK3">
-        <v>24.744971542692593</v>
-      </c>
-      <c r="AL3">
-        <v>11.65020474320597</v>
-      </c>
-      <c r="AM3">
-        <v>14.411027846074973</v>
-      </c>
-      <c r="AN3">
-        <v>6.039703421843396</v>
-      </c>
       <c r="AO3">
-        <v>11.869087055914308</v>
+        <v>11.86908704509778</v>
       </c>
       <c r="AP3">
-        <v>7.9901832981502219</v>
+        <v>7.990183288113724</v>
       </c>
       <c r="AQ3">
-        <v>8.5190974254257963</v>
+        <v>8.5190974215319812</v>
       </c>
       <c r="AS3">
-        <v>9.1264199640588899</v>
+        <v>9.1264199579612733</v>
       </c>
       <c r="AT3">
-        <v>8.948923132923186</v>
+        <v>8.9489231144241863</v>
       </c>
       <c r="AU3">
-        <v>10.757153386610785</v>
+        <v>10.757153375162543</v>
       </c>
       <c r="AV3">
-        <v>10.38343429162842</v>
+        <v>10.383434268008338</v>
       </c>
       <c r="AW3">
-        <v>9.3021829350236747</v>
+        <v>9.3021829251665444</v>
       </c>
       <c r="AX3">
-        <v>11.813549920411912</v>
+        <v>11.813549902780823</v>
       </c>
       <c r="AY3">
-        <v>33.030299612218229</v>
+        <v>33.030299592370504</v>
       </c>
     </row>
   </sheetData>
